--- a/copies to edit/count_data/count_2017.xlsx
+++ b/copies to edit/count_data/count_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata " sheetId="2" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3347,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>

--- a/copies to edit/count_data/count_2017.xlsx
+++ b/copies to edit/count_data/count_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata " sheetId="2" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2204,6 +2204,9 @@
       <c r="B16" t="s">
         <v>329</v>
       </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -2212,6 +2215,9 @@
       <c r="B17" t="s">
         <v>331</v>
       </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -2220,6 +2226,9 @@
       <c r="B18" t="s">
         <v>407</v>
       </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -2228,6 +2237,9 @@
       <c r="B19" t="s">
         <v>412</v>
       </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -2283,6 +2295,9 @@
       </c>
       <c r="B26" t="s">
         <v>426</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">

--- a/copies to edit/count_data/count_2017.xlsx
+++ b/copies to edit/count_data/count_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata " sheetId="2" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="436">
   <si>
     <t>DATE</t>
   </si>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>given to native forbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
   </si>
 </sst>
 </file>
@@ -2106,15 +2109,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="97.36328125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -2224,7 +2227,7 @@
         <v>410</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -2248,6 +2251,9 @@
       <c r="B20" t="s">
         <v>414</v>
       </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -2256,6 +2262,9 @@
       <c r="B21" t="s">
         <v>416</v>
       </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -2264,6 +2273,9 @@
       <c r="B22" t="s">
         <v>418</v>
       </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -2272,6 +2284,9 @@
       <c r="B23" t="s">
         <v>420</v>
       </c>
+      <c r="C23">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -2280,6 +2295,9 @@
       <c r="B24" t="s">
         <v>422</v>
       </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -2287,6 +2305,9 @@
       </c>
       <c r="B25" t="s">
         <v>424</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3362,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU49"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11320,7 +11341,7 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="1" t="s">
         <v>324</v>
       </c>
       <c r="L22">
